--- a/data/pca/factorExposure/factorExposure_2018-07-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-07-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03618762166900712</v>
+        <v>-0.02592955750992181</v>
       </c>
       <c r="C2">
-        <v>0.03650379610753047</v>
+        <v>-0.01668332997424782</v>
       </c>
       <c r="D2">
-        <v>-0.01369300939309613</v>
+        <v>-0.02090915745542761</v>
       </c>
       <c r="E2">
-        <v>0.03825051682941302</v>
+        <v>0.01438155158238306</v>
       </c>
       <c r="F2">
-        <v>-0.1257815442764579</v>
+        <v>0.006683009209194496</v>
       </c>
       <c r="G2">
-        <v>-0.07763814875042652</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.05843678947508892</v>
+      </c>
+      <c r="H2">
+        <v>-0.04662113647055506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1234738090249379</v>
+        <v>-0.07819859397278457</v>
       </c>
       <c r="C3">
-        <v>0.0359052856152474</v>
+        <v>0.01267009394054842</v>
       </c>
       <c r="D3">
-        <v>0.04706266748718987</v>
+        <v>-0.01823664926668715</v>
       </c>
       <c r="E3">
-        <v>0.06430605439592833</v>
+        <v>0.006927337453846037</v>
       </c>
       <c r="F3">
-        <v>-0.3400553979310406</v>
+        <v>-0.04764909097950906</v>
       </c>
       <c r="G3">
-        <v>-0.2166048284618231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1861388220885244</v>
+      </c>
+      <c r="H3">
+        <v>-0.1478697500088765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05437611615786833</v>
+        <v>-0.04829606765698809</v>
       </c>
       <c r="C4">
-        <v>-0.001647211025693275</v>
+        <v>-0.00322593615881726</v>
       </c>
       <c r="D4">
-        <v>-0.03925629529955751</v>
+        <v>-0.04128300042433569</v>
       </c>
       <c r="E4">
-        <v>0.06150725153618457</v>
+        <v>-0.0194202407954176</v>
       </c>
       <c r="F4">
-        <v>-0.07307042745312189</v>
+        <v>0.04879168347080808</v>
       </c>
       <c r="G4">
-        <v>-0.06797624043366089</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04326771578185262</v>
+      </c>
+      <c r="H4">
+        <v>-0.05135435608548699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01349531580720771</v>
+        <v>-0.02638490399294189</v>
       </c>
       <c r="C6">
-        <v>0.008866428615058661</v>
+        <v>-0.003744751978491532</v>
       </c>
       <c r="D6">
-        <v>0.007340701235432096</v>
+        <v>-0.05177802048336805</v>
       </c>
       <c r="E6">
-        <v>0.02218725135382022</v>
+        <v>-0.004448066984405772</v>
       </c>
       <c r="F6">
-        <v>-0.01484869938220477</v>
+        <v>0.03030912083796005</v>
       </c>
       <c r="G6">
-        <v>0.0006236204862898316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01278082538298416</v>
+      </c>
+      <c r="H6">
+        <v>-0.05893967877671276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02495433478763181</v>
+        <v>-0.02041675834199325</v>
       </c>
       <c r="C7">
-        <v>0.004791950546074893</v>
+        <v>-0.003146526942464469</v>
       </c>
       <c r="D7">
-        <v>0.005236884929181765</v>
+        <v>-0.02460584066806052</v>
       </c>
       <c r="E7">
-        <v>0.03618997030700073</v>
+        <v>-0.0360320863209584</v>
       </c>
       <c r="F7">
-        <v>-0.05057699684958204</v>
+        <v>0.00839652085326332</v>
       </c>
       <c r="G7">
-        <v>-0.07003463448973102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.02389180901255354</v>
+      </c>
+      <c r="H7">
+        <v>-0.03735750941680473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.02058702866610953</v>
+        <v>-0.006987081342082493</v>
       </c>
       <c r="C8">
-        <v>-0.001678927404400491</v>
+        <v>0.002310323965944887</v>
       </c>
       <c r="D8">
-        <v>-0.01158676754277372</v>
+        <v>-0.01057071148303467</v>
       </c>
       <c r="E8">
-        <v>0.06431046055815834</v>
+        <v>-0.00993574704822792</v>
       </c>
       <c r="F8">
-        <v>-0.08713224048883887</v>
+        <v>0.01701804324700014</v>
       </c>
       <c r="G8">
-        <v>-0.09032081900383432</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.05087446946859398</v>
+      </c>
+      <c r="H8">
+        <v>-0.03178282525001194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04560264744480957</v>
+        <v>-0.03981449941220233</v>
       </c>
       <c r="C9">
-        <v>-0.009455303899661772</v>
+        <v>0.000891067199457237</v>
       </c>
       <c r="D9">
-        <v>-0.03126586238177435</v>
+        <v>-0.03320038169175556</v>
       </c>
       <c r="E9">
-        <v>0.06196558127510508</v>
+        <v>-0.01757425807037614</v>
       </c>
       <c r="F9">
-        <v>-0.0708367672474572</v>
+        <v>0.02339079903551279</v>
       </c>
       <c r="G9">
-        <v>-0.06330176076381509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04978693442547603</v>
+      </c>
+      <c r="H9">
+        <v>-0.04870514984019812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03057628692739047</v>
+        <v>-0.09978222227573812</v>
       </c>
       <c r="C10">
-        <v>-0.03270205931052002</v>
+        <v>0.03113826906009659</v>
       </c>
       <c r="D10">
-        <v>-0.02472552094301686</v>
+        <v>0.1517043428988326</v>
       </c>
       <c r="E10">
-        <v>-0.1163890422940015</v>
+        <v>0.01010664067737294</v>
       </c>
       <c r="F10">
-        <v>-0.06287646197250689</v>
+        <v>-0.04807889524310122</v>
       </c>
       <c r="G10">
-        <v>0.006733241714762335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02502749520407912</v>
+      </c>
+      <c r="H10">
+        <v>-0.005139155608962179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03674014339107728</v>
+        <v>-0.02135872336373335</v>
       </c>
       <c r="C11">
-        <v>0.01924571756180902</v>
+        <v>0.008344793000840329</v>
       </c>
       <c r="D11">
-        <v>-0.001135676469902766</v>
+        <v>-0.03697123717713355</v>
       </c>
       <c r="E11">
-        <v>0.03652978625084891</v>
+        <v>0.004996019391163694</v>
       </c>
       <c r="F11">
-        <v>-0.03781537473858095</v>
+        <v>0.009959511100420771</v>
       </c>
       <c r="G11">
-        <v>-0.02727742842756942</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02628437198601613</v>
+      </c>
+      <c r="H11">
+        <v>-0.04153134639245553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04423733719809741</v>
+        <v>-0.03007691679396023</v>
       </c>
       <c r="C12">
-        <v>0.007366448996592799</v>
+        <v>0.006862612605830678</v>
       </c>
       <c r="D12">
-        <v>-0.008829193210524743</v>
+        <v>-0.03807144352553145</v>
       </c>
       <c r="E12">
-        <v>0.04333049692562712</v>
+        <v>-0.006587946730632841</v>
       </c>
       <c r="F12">
-        <v>-0.02471056434648251</v>
+        <v>0.01678893722442342</v>
       </c>
       <c r="G12">
-        <v>-0.01866841292959344</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.01155578028947029</v>
+      </c>
+      <c r="H12">
+        <v>-0.02156119583040248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01941654158945368</v>
+        <v>-0.0262850996771076</v>
       </c>
       <c r="C13">
-        <v>0.03398006783957098</v>
+        <v>-0.01338685526191725</v>
       </c>
       <c r="D13">
-        <v>-0.00754655335333768</v>
+        <v>-0.003130942757336706</v>
       </c>
       <c r="E13">
-        <v>0.01477449769018526</v>
+        <v>0.01742718872884765</v>
       </c>
       <c r="F13">
-        <v>-0.07438527426861664</v>
+        <v>0.01028187515746127</v>
       </c>
       <c r="G13">
-        <v>-0.04951864783915959</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.05174095461795766</v>
+      </c>
+      <c r="H13">
+        <v>-0.05005281492047584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01114925940060693</v>
+        <v>-0.01573442536200407</v>
       </c>
       <c r="C14">
-        <v>0.005656313973265942</v>
+        <v>-0.0008666660856965498</v>
       </c>
       <c r="D14">
-        <v>-0.007252429813024493</v>
+        <v>-0.006025968159014842</v>
       </c>
       <c r="E14">
-        <v>0.03735492197056443</v>
+        <v>-0.007771043255720744</v>
       </c>
       <c r="F14">
-        <v>-0.04881200916104661</v>
+        <v>0.01451703084197222</v>
       </c>
       <c r="G14">
-        <v>-0.0769342526120335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04353408822466287</v>
+      </c>
+      <c r="H14">
+        <v>-1.214485992880157e-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02780023622193899</v>
+        <v>-0.02279382876699088</v>
       </c>
       <c r="C16">
-        <v>0.01831931142743063</v>
+        <v>0.008920396508020033</v>
       </c>
       <c r="D16">
-        <v>-0.00342169628427116</v>
+        <v>-0.03343424701367051</v>
       </c>
       <c r="E16">
-        <v>0.03267151222899728</v>
+        <v>1.110192354622369e-05</v>
       </c>
       <c r="F16">
-        <v>-0.04366004641527122</v>
+        <v>0.01509373404594175</v>
       </c>
       <c r="G16">
-        <v>-0.02997876789140851</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02459083775551599</v>
+      </c>
+      <c r="H16">
+        <v>-0.03471896877632479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04304688214063812</v>
+        <v>-0.03401778107611381</v>
       </c>
       <c r="C19">
-        <v>0.01885989976057699</v>
+        <v>0.0003210073787243375</v>
       </c>
       <c r="D19">
-        <v>-0.001260927774328343</v>
+        <v>-0.01630313602823439</v>
       </c>
       <c r="E19">
-        <v>0.04860067829877877</v>
+        <v>0.001194034423767849</v>
       </c>
       <c r="F19">
-        <v>-0.09487342394600565</v>
+        <v>0.01980290969216158</v>
       </c>
       <c r="G19">
-        <v>-0.05979754340682097</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.0620103818615093</v>
+      </c>
+      <c r="H19">
+        <v>-0.06226859681054046</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001850755629427783</v>
+        <v>-0.01031285274900371</v>
       </c>
       <c r="C20">
-        <v>0.01315817803688431</v>
+        <v>-0.006428021125607294</v>
       </c>
       <c r="D20">
-        <v>-0.01510667090735107</v>
+        <v>-0.005833599772697155</v>
       </c>
       <c r="E20">
-        <v>0.03692332111103212</v>
+        <v>0.0002848315457793651</v>
       </c>
       <c r="F20">
-        <v>-0.04910487317461838</v>
+        <v>0.009517540493560454</v>
       </c>
       <c r="G20">
-        <v>-0.08293032930061997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04898549174677955</v>
+      </c>
+      <c r="H20">
+        <v>-0.01023554119182949</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.0005954372853097803</v>
+        <v>-0.01890895718797153</v>
       </c>
       <c r="C21">
-        <v>0.000541862075477051</v>
+        <v>-0.006731036240314302</v>
       </c>
       <c r="D21">
-        <v>0.01144072937575511</v>
+        <v>-0.009097955106878631</v>
       </c>
       <c r="E21">
-        <v>0.03785581218405404</v>
+        <v>-0.01083360088751668</v>
       </c>
       <c r="F21">
-        <v>-0.06006224930549635</v>
+        <v>0.005301682508029993</v>
       </c>
       <c r="G21">
-        <v>-0.04062548904891141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.05061804569104654</v>
+      </c>
+      <c r="H21">
+        <v>-0.02812520817224871</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03403310723245901</v>
+        <v>-0.02074366273115756</v>
       </c>
       <c r="C24">
-        <v>0.01499697328979514</v>
+        <v>0.003369706399766049</v>
       </c>
       <c r="D24">
-        <v>-0.01024382570402951</v>
+        <v>-0.03338217266391905</v>
       </c>
       <c r="E24">
-        <v>0.01822811370288045</v>
+        <v>-0.000149154006092129</v>
       </c>
       <c r="F24">
-        <v>-0.03777768796062906</v>
+        <v>0.009017285526801399</v>
       </c>
       <c r="G24">
-        <v>-0.02634674154255803</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02081226769329925</v>
+      </c>
+      <c r="H24">
+        <v>-0.03687969850609309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03205566130967999</v>
+        <v>-0.02971862615292991</v>
       </c>
       <c r="C25">
-        <v>0.008854994299835226</v>
+        <v>0.001226568217118488</v>
       </c>
       <c r="D25">
-        <v>-0.001954773737228952</v>
+        <v>-0.03319994648159792</v>
       </c>
       <c r="E25">
-        <v>0.04024769280401343</v>
+        <v>-0.001691153052101262</v>
       </c>
       <c r="F25">
-        <v>-0.03871845232239925</v>
+        <v>0.01571760490147314</v>
       </c>
       <c r="G25">
-        <v>-0.01110366692818704</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02483749139937474</v>
+      </c>
+      <c r="H25">
+        <v>-0.04045251555827162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02299702892802637</v>
+        <v>-0.02081818436286577</v>
       </c>
       <c r="C26">
-        <v>0.02632194838752634</v>
+        <v>-0.01669516630969688</v>
       </c>
       <c r="D26">
-        <v>0.0176907998877838</v>
+        <v>-0.002772264504441512</v>
       </c>
       <c r="E26">
-        <v>0.03262714509609566</v>
+        <v>0.007326340493974993</v>
       </c>
       <c r="F26">
-        <v>-0.06158762156292235</v>
+        <v>-0.0002676234312951757</v>
       </c>
       <c r="G26">
-        <v>-0.04353444990815539</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03257742133070488</v>
+      </c>
+      <c r="H26">
+        <v>-0.01506196899315707</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.06832216495423553</v>
+        <v>-0.02683230088443533</v>
       </c>
       <c r="C27">
-        <v>0.005959219972031129</v>
+        <v>0.01079308151851538</v>
       </c>
       <c r="D27">
-        <v>-0.05167604687979224</v>
+        <v>-0.01651974207913906</v>
       </c>
       <c r="E27">
-        <v>0.03840864917021954</v>
+        <v>-0.005082081178408039</v>
       </c>
       <c r="F27">
-        <v>-0.04286533269799633</v>
+        <v>0.02086823120280609</v>
       </c>
       <c r="G27">
-        <v>-0.04397468114348764</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01944551866174216</v>
+      </c>
+      <c r="H27">
+        <v>-0.005443880550313873</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04716105387877473</v>
+        <v>-0.1493952014946899</v>
       </c>
       <c r="C28">
-        <v>-0.04894646591554296</v>
+        <v>0.03332041013979574</v>
       </c>
       <c r="D28">
-        <v>-0.04616803575821341</v>
+        <v>0.2243409357547613</v>
       </c>
       <c r="E28">
-        <v>-0.172755896343675</v>
+        <v>0.00778617185302432</v>
       </c>
       <c r="F28">
-        <v>-0.0775047018875341</v>
+        <v>-0.05395646376267246</v>
       </c>
       <c r="G28">
-        <v>-0.02143337562529159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01530763535284482</v>
+      </c>
+      <c r="H28">
+        <v>0.01598054024577404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02096494638705337</v>
+        <v>-0.02088685025789436</v>
       </c>
       <c r="C29">
-        <v>-0.001370759485044048</v>
+        <v>0.00146963620295637</v>
       </c>
       <c r="D29">
-        <v>-0.0130340408313932</v>
+        <v>-0.009125244518252133</v>
       </c>
       <c r="E29">
-        <v>0.04929361933546519</v>
+        <v>-0.0092286364950917</v>
       </c>
       <c r="F29">
-        <v>-0.0396950053580468</v>
+        <v>0.01711852584951895</v>
       </c>
       <c r="G29">
-        <v>-0.0699504585891258</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03932163653010658</v>
+      </c>
+      <c r="H29">
+        <v>0.003220553730802963</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.09280716596506107</v>
+        <v>-0.05198549567968714</v>
       </c>
       <c r="C30">
-        <v>0.04821063849913199</v>
+        <v>-0.004284637096155885</v>
       </c>
       <c r="D30">
-        <v>-0.03303559553809701</v>
+        <v>-0.06693597743711636</v>
       </c>
       <c r="E30">
-        <v>0.07672007954047652</v>
+        <v>0.03601051466756015</v>
       </c>
       <c r="F30">
-        <v>-0.08165123037124776</v>
+        <v>0.04730855797367579</v>
       </c>
       <c r="G30">
-        <v>-0.05271595977622565</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.05670120476881779</v>
+      </c>
+      <c r="H30">
+        <v>-0.06300220421700883</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06445592912325188</v>
+        <v>-0.05474925240663207</v>
       </c>
       <c r="C31">
-        <v>0.03939157493194229</v>
+        <v>0.01553992280305532</v>
       </c>
       <c r="D31">
-        <v>0.0002434891907248221</v>
+        <v>-0.02837468501123389</v>
       </c>
       <c r="E31">
-        <v>0.03028363154830789</v>
+        <v>0.009050224440981483</v>
       </c>
       <c r="F31">
-        <v>-0.0294782653653557</v>
+        <v>0.0149755343740257</v>
       </c>
       <c r="G31">
-        <v>-0.08931590715726595</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02152631302802142</v>
+      </c>
+      <c r="H31">
+        <v>1.651721689990972e-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.021473504006116</v>
+        <v>-0.01008114000846158</v>
       </c>
       <c r="C32">
-        <v>0.01148487781148993</v>
+        <v>0.01361459754188034</v>
       </c>
       <c r="D32">
-        <v>-0.01417177609397367</v>
+        <v>-0.002833708443328017</v>
       </c>
       <c r="E32">
-        <v>0.07967309893835448</v>
+        <v>-0.01947307320592167</v>
       </c>
       <c r="F32">
-        <v>-0.05291878073593079</v>
+        <v>0.04121648287156667</v>
       </c>
       <c r="G32">
-        <v>-0.05260677143085083</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.03740236224289478</v>
+      </c>
+      <c r="H32">
+        <v>-0.05896067614221024</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05450277043899042</v>
+        <v>-0.03896420679540747</v>
       </c>
       <c r="C33">
-        <v>0.0333154129607386</v>
+        <v>0.001396036831966934</v>
       </c>
       <c r="D33">
-        <v>0.01976839993857756</v>
+        <v>-0.02956938776680302</v>
       </c>
       <c r="E33">
-        <v>0.06080208888494373</v>
+        <v>0.02545246364392337</v>
       </c>
       <c r="F33">
-        <v>-0.08234148976880443</v>
+        <v>-0.001038519214451418</v>
       </c>
       <c r="G33">
-        <v>-0.06539710434209257</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.05139143102697008</v>
+      </c>
+      <c r="H33">
+        <v>-0.03777569164302499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03560852730371869</v>
+        <v>-0.02687008777814007</v>
       </c>
       <c r="C34">
-        <v>0.01556134354439766</v>
+        <v>0.01736801281346171</v>
       </c>
       <c r="D34">
-        <v>-0.01171646133120999</v>
+        <v>-0.03478928202369726</v>
       </c>
       <c r="E34">
-        <v>0.04104288513713356</v>
+        <v>-0.005432764520817995</v>
       </c>
       <c r="F34">
-        <v>-0.05013714437271326</v>
+        <v>0.01629245877233129</v>
       </c>
       <c r="G34">
-        <v>-0.02001327971832138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02191540349803581</v>
+      </c>
+      <c r="H34">
+        <v>-0.03447245561088468</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01581332686742517</v>
+        <v>-0.02159087618330306</v>
       </c>
       <c r="C36">
-        <v>0.003428646401627614</v>
+        <v>-0.003379933696149491</v>
       </c>
       <c r="D36">
-        <v>-0.004910386755127086</v>
+        <v>0.0004083846037662925</v>
       </c>
       <c r="E36">
-        <v>0.02938707012015748</v>
+        <v>-0.002175569120338861</v>
       </c>
       <c r="F36">
-        <v>-0.02987503730678656</v>
+        <v>0.005171461550730453</v>
       </c>
       <c r="G36">
-        <v>-0.04386902115470261</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02129047638060586</v>
+      </c>
+      <c r="H36">
+        <v>-0.005400842845498472</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.003683045478259851</v>
+        <v>-0.02296221674903435</v>
       </c>
       <c r="C38">
-        <v>-0.009953424133459583</v>
+        <v>0.01669205431486588</v>
       </c>
       <c r="D38">
-        <v>0.01540220818724412</v>
+        <v>-0.002129989124401799</v>
       </c>
       <c r="E38">
-        <v>-0.003848031261229054</v>
+        <v>-0.003469238172720259</v>
       </c>
       <c r="F38">
-        <v>-0.04682545839117745</v>
+        <v>0.005651990490541072</v>
       </c>
       <c r="G38">
-        <v>0.0008032589735739688</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02446685361760462</v>
+      </c>
+      <c r="H38">
+        <v>-0.03772234408731989</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0424481220093843</v>
+        <v>-0.01972891194473284</v>
       </c>
       <c r="C39">
-        <v>0.03271257884107679</v>
+        <v>0.001062710015965648</v>
       </c>
       <c r="D39">
-        <v>-0.01124340053322763</v>
+        <v>-0.07489337553890421</v>
       </c>
       <c r="E39">
-        <v>0.04729764938243774</v>
+        <v>0.004949166504114822</v>
       </c>
       <c r="F39">
-        <v>-0.05954990488147618</v>
+        <v>0.02027947311432236</v>
       </c>
       <c r="G39">
-        <v>-0.02862768254014844</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04359986339989794</v>
+      </c>
+      <c r="H39">
+        <v>-0.06821684035605372</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03711672300211588</v>
+        <v>-0.03339839250727461</v>
       </c>
       <c r="C40">
-        <v>0.06608599072278087</v>
+        <v>0.001910522682315473</v>
       </c>
       <c r="D40">
-        <v>-0.02041489536465657</v>
+        <v>-0.01912229352239855</v>
       </c>
       <c r="E40">
-        <v>0.03466783036027242</v>
+        <v>0.0241584637771904</v>
       </c>
       <c r="F40">
-        <v>-0.06693462222305288</v>
+        <v>0.02562848856981382</v>
       </c>
       <c r="G40">
-        <v>-0.05559942367990162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02796001398161822</v>
+      </c>
+      <c r="H40">
+        <v>-0.06688378897447751</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0009177313313563102</v>
+        <v>-0.01241350808902528</v>
       </c>
       <c r="C41">
-        <v>0.001316250672580944</v>
+        <v>0.0004221663262962373</v>
       </c>
       <c r="D41">
-        <v>0.002760685076156267</v>
+        <v>0.01238040063580266</v>
       </c>
       <c r="E41">
-        <v>0.0130789787124385</v>
+        <v>0.001180492808061582</v>
       </c>
       <c r="F41">
-        <v>0.003939916947858232</v>
+        <v>0.000875287851106386</v>
       </c>
       <c r="G41">
-        <v>-0.05408719638197679</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.00658837944802365</v>
+      </c>
+      <c r="H41">
+        <v>0.008872020266847568</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.377430202270935</v>
+        <v>-0.1969070769118948</v>
       </c>
       <c r="C42">
-        <v>-0.1275170283323307</v>
+        <v>-0.07378106637725272</v>
       </c>
       <c r="D42">
-        <v>0.8668445132807628</v>
+        <v>-0.3745811106505577</v>
       </c>
       <c r="E42">
-        <v>-0.137486893062471</v>
+        <v>0.1534453548557096</v>
       </c>
       <c r="F42">
-        <v>0.184885528269406</v>
+        <v>-0.8503707016214253</v>
       </c>
       <c r="G42">
-        <v>-0.03297125963601281</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.2184397194129464</v>
+      </c>
+      <c r="H42">
+        <v>0.04207371184090924</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.00554411785621855</v>
+        <v>-0.01096915366164763</v>
       </c>
       <c r="C43">
-        <v>0.004858275081116886</v>
+        <v>-0.001738381186183715</v>
       </c>
       <c r="D43">
-        <v>0.0146895904758437</v>
+        <v>0.01601345043783536</v>
       </c>
       <c r="E43">
-        <v>0.01800358615551643</v>
+        <v>0.007328828041667231</v>
       </c>
       <c r="F43">
-        <v>-0.01656990053490457</v>
+        <v>-0.009283722228345932</v>
       </c>
       <c r="G43">
-        <v>-0.05765083869852432</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.009030698064387719</v>
+      </c>
+      <c r="H43">
+        <v>0.0007817076581635114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01608619388228462</v>
+        <v>-0.01354260272910597</v>
       </c>
       <c r="C44">
-        <v>0.01069436563965399</v>
+        <v>0.0009953623861380563</v>
       </c>
       <c r="D44">
-        <v>0.01296984178231045</v>
+        <v>-0.0187226517653942</v>
       </c>
       <c r="E44">
-        <v>0.04428771876760447</v>
+        <v>-0.001906752139868473</v>
       </c>
       <c r="F44">
-        <v>-0.1108130458104284</v>
+        <v>-0.005151424811863393</v>
       </c>
       <c r="G44">
-        <v>-0.1214465278769798</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.04689808689656703</v>
+      </c>
+      <c r="H44">
+        <v>-0.0507453655440518</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01923116240947889</v>
+        <v>-0.01893531388974523</v>
       </c>
       <c r="C46">
-        <v>0.01312287123602455</v>
+        <v>-0.003474522573105672</v>
       </c>
       <c r="D46">
-        <v>0.007798815082535901</v>
+        <v>-0.01551558513067127</v>
       </c>
       <c r="E46">
-        <v>0.05935411802465594</v>
+        <v>0.001680928434688504</v>
       </c>
       <c r="F46">
-        <v>-0.05224404855823813</v>
+        <v>0.01431507830198086</v>
       </c>
       <c r="G46">
-        <v>-0.07741525193391699</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05164199938895891</v>
+      </c>
+      <c r="H46">
+        <v>-0.008309889544523679</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1000154949757916</v>
+        <v>-0.07512882713247004</v>
       </c>
       <c r="C47">
-        <v>0.03167891088339245</v>
+        <v>0.03096550835246625</v>
       </c>
       <c r="D47">
-        <v>-0.01868077694867188</v>
+        <v>-0.04154032292440158</v>
       </c>
       <c r="E47">
-        <v>0.03320512044101465</v>
+        <v>0.005213388426033942</v>
       </c>
       <c r="F47">
-        <v>0.003259692935047858</v>
+        <v>0.02443763991026889</v>
       </c>
       <c r="G47">
-        <v>-0.08960708410831547</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.004881387434113769</v>
+      </c>
+      <c r="H47">
+        <v>0.02530153195622379</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01818400614565397</v>
+        <v>-0.02292996950354684</v>
       </c>
       <c r="C48">
-        <v>0.01221488784905371</v>
+        <v>0.007142879563364276</v>
       </c>
       <c r="D48">
-        <v>0.003340781400056688</v>
+        <v>-0.004323233150896939</v>
       </c>
       <c r="E48">
-        <v>0.03272083541171458</v>
+        <v>0.002634549696390142</v>
       </c>
       <c r="F48">
-        <v>-0.04699824372912073</v>
+        <v>0.007451927945268067</v>
       </c>
       <c r="G48">
-        <v>-0.02973578000978109</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02687252625239539</v>
+      </c>
+      <c r="H48">
+        <v>-0.01362268108122041</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09367187437167657</v>
+        <v>-0.07263270529612433</v>
       </c>
       <c r="C50">
-        <v>0.03554412706582837</v>
+        <v>0.02789316106448302</v>
       </c>
       <c r="D50">
-        <v>-0.007794601893994748</v>
+        <v>-0.04518126438262206</v>
       </c>
       <c r="E50">
-        <v>0.05161522632413493</v>
+        <v>-0.009021643991197818</v>
       </c>
       <c r="F50">
-        <v>-0.03374975267697763</v>
+        <v>0.02096287734051822</v>
       </c>
       <c r="G50">
-        <v>-0.0519956630826206</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.02026887299244931</v>
+      </c>
+      <c r="H50">
+        <v>0.008419755039102342</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0177650678681249</v>
+        <v>-0.01815449919395768</v>
       </c>
       <c r="C51">
-        <v>0.01662573252708158</v>
+        <v>-0.001288638212323671</v>
       </c>
       <c r="D51">
-        <v>0.01371394251235103</v>
+        <v>0.008084487039051754</v>
       </c>
       <c r="E51">
-        <v>0.01308057631658923</v>
+        <v>0.006042229093536597</v>
       </c>
       <c r="F51">
-        <v>-0.1262556266734514</v>
+        <v>-0.01268984028917061</v>
       </c>
       <c r="G51">
-        <v>-0.07825520572345931</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.05184575875397</v>
+      </c>
+      <c r="H51">
+        <v>-0.04842595060571314</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1050350440414733</v>
+        <v>-0.09099675322994553</v>
       </c>
       <c r="C53">
-        <v>0.03721313555554832</v>
+        <v>0.03722373729978099</v>
       </c>
       <c r="D53">
-        <v>-0.02495413712722237</v>
+        <v>-0.07843552570136468</v>
       </c>
       <c r="E53">
-        <v>0.04813358172006525</v>
+        <v>0.002653387728684385</v>
       </c>
       <c r="F53">
-        <v>0.05941384064957893</v>
+        <v>0.05299818785492742</v>
       </c>
       <c r="G53">
-        <v>-0.02616665951541875</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.04134410424097187</v>
+      </c>
+      <c r="H53">
+        <v>0.04657472575877247</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01399101306505207</v>
+        <v>-0.02299530108979056</v>
       </c>
       <c r="C54">
-        <v>0.003723109588762343</v>
+        <v>0.0109940330978542</v>
       </c>
       <c r="D54">
-        <v>-0.01324533254337673</v>
+        <v>0.0136729102110082</v>
       </c>
       <c r="E54">
-        <v>0.03541098679763468</v>
+        <v>-0.005016496108575435</v>
       </c>
       <c r="F54">
-        <v>-0.04548664888874693</v>
+        <v>0.006406706544581709</v>
       </c>
       <c r="G54">
-        <v>-0.1013476599716469</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.04055138730884636</v>
+      </c>
+      <c r="H54">
+        <v>0.005583230218754128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1014697104786338</v>
+        <v>-0.07569845906747674</v>
       </c>
       <c r="C55">
-        <v>0.006364877128916843</v>
+        <v>0.03212496354059905</v>
       </c>
       <c r="D55">
-        <v>-0.02524287976035661</v>
+        <v>-0.07606679197401185</v>
       </c>
       <c r="E55">
-        <v>0.05513893299001953</v>
+        <v>-0.008770229053467067</v>
       </c>
       <c r="F55">
-        <v>0.04943598207486496</v>
+        <v>0.04160140925083243</v>
       </c>
       <c r="G55">
-        <v>-0.06018121270238561</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01901643244562186</v>
+      </c>
+      <c r="H55">
+        <v>0.05063203365733049</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1452653441857948</v>
+        <v>-0.1265650247888949</v>
       </c>
       <c r="C56">
-        <v>0.04059310405668096</v>
+        <v>0.05802243593513892</v>
       </c>
       <c r="D56">
-        <v>-0.08314449363810221</v>
+        <v>-0.0992093889902131</v>
       </c>
       <c r="E56">
-        <v>0.0550086419684132</v>
+        <v>-0.000933103499492512</v>
       </c>
       <c r="F56">
-        <v>0.1271071466520907</v>
+        <v>0.08595663892123653</v>
       </c>
       <c r="G56">
-        <v>0.04578509694285282</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.07287017753636238</v>
+      </c>
+      <c r="H56">
+        <v>0.05107446483444368</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04632779685435317</v>
+        <v>-0.04028288213255419</v>
       </c>
       <c r="C57">
-        <v>0.02999054617564261</v>
+        <v>-0.009710477942445532</v>
       </c>
       <c r="D57">
-        <v>0.01166688757085354</v>
+        <v>-0.02578548320188016</v>
       </c>
       <c r="E57">
-        <v>-0.006613566203591873</v>
+        <v>0.0127056956332648</v>
       </c>
       <c r="F57">
-        <v>-0.08043436663981132</v>
+        <v>0.008236298971978221</v>
       </c>
       <c r="G57">
-        <v>-0.05056761983284088</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.05628000723649612</v>
+      </c>
+      <c r="H57">
+        <v>-0.03671292979300031</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2137373116518378</v>
+        <v>-0.1480833401490083</v>
       </c>
       <c r="C58">
-        <v>0.1011669216391401</v>
+        <v>0.04387327785735851</v>
       </c>
       <c r="D58">
-        <v>0.03028377294022491</v>
+        <v>-0.1547998371841478</v>
       </c>
       <c r="E58">
-        <v>0.1917371523407185</v>
+        <v>0.136072281708361</v>
       </c>
       <c r="F58">
-        <v>-0.2880420317338281</v>
+        <v>-0.07652287491406465</v>
       </c>
       <c r="G58">
-        <v>-0.09898526063527308</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.8274217704572584</v>
+      </c>
+      <c r="H58">
+        <v>0.36437465897461</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.04874781633772026</v>
+        <v>-0.1553760096772314</v>
       </c>
       <c r="C59">
-        <v>-0.01244652205901217</v>
+        <v>0.04135057637141572</v>
       </c>
       <c r="D59">
-        <v>-0.05980925383244876</v>
+        <v>0.2207102557984968</v>
       </c>
       <c r="E59">
-        <v>-0.144067329721151</v>
+        <v>0.02672224910500956</v>
       </c>
       <c r="F59">
-        <v>-0.08777294671629111</v>
+        <v>-0.03427587910404749</v>
       </c>
       <c r="G59">
-        <v>0.02118952662081849</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.0108103747353317</v>
+      </c>
+      <c r="H59">
+        <v>-0.01844474313264748</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1652717558456946</v>
+        <v>-0.17177052254531</v>
       </c>
       <c r="C60">
-        <v>0.06311928935232748</v>
+        <v>0.03865114415182318</v>
       </c>
       <c r="D60">
-        <v>0.00938407571223504</v>
+        <v>-0.02094407143100185</v>
       </c>
       <c r="E60">
-        <v>0.01265610910247059</v>
+        <v>0.05202505768715659</v>
       </c>
       <c r="F60">
-        <v>-0.2016379819715238</v>
+        <v>0.03299485658527338</v>
       </c>
       <c r="G60">
-        <v>0.313309907233165</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.04319717944258131</v>
+      </c>
+      <c r="H60">
+        <v>-0.3951991872432105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02308877034720978</v>
+        <v>-0.021319820524254</v>
       </c>
       <c r="C61">
-        <v>0.008520932585507193</v>
+        <v>0.006324797963392297</v>
       </c>
       <c r="D61">
-        <v>0.002361155834259348</v>
+        <v>-0.04325224031895879</v>
       </c>
       <c r="E61">
-        <v>0.02603518555281481</v>
+        <v>-0.001363334034610654</v>
       </c>
       <c r="F61">
-        <v>-0.03665988426947688</v>
+        <v>0.01654358807083797</v>
       </c>
       <c r="G61">
-        <v>-0.01496206301718168</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02460969782108909</v>
+      </c>
+      <c r="H61">
+        <v>-0.04898957238164017</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01708857030303276</v>
+        <v>-0.0125702099376206</v>
       </c>
       <c r="C63">
-        <v>0.009429690848074107</v>
+        <v>-0.002137019181765154</v>
       </c>
       <c r="D63">
-        <v>-0.001061496715081284</v>
+        <v>-0.01247449572349435</v>
       </c>
       <c r="E63">
-        <v>0.043687114450153</v>
+        <v>-0.001750325149102872</v>
       </c>
       <c r="F63">
-        <v>-0.006326032434213246</v>
+        <v>0.01452315257735657</v>
       </c>
       <c r="G63">
-        <v>-0.0561882674202247</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01640006231040319</v>
+      </c>
+      <c r="H63">
+        <v>0.004133375785261403</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03676622096185255</v>
+        <v>-0.04039254039745351</v>
       </c>
       <c r="C64">
-        <v>-0.01576664381880576</v>
+        <v>0.01039040188935665</v>
       </c>
       <c r="D64">
-        <v>-0.01668510108534775</v>
+        <v>-0.03946372500255728</v>
       </c>
       <c r="E64">
-        <v>0.04502310495967363</v>
+        <v>-0.009542311244087937</v>
       </c>
       <c r="F64">
-        <v>-0.009618848891879691</v>
+        <v>0.009043021120368529</v>
       </c>
       <c r="G64">
-        <v>-0.06707605738196856</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.009742069198404058</v>
+      </c>
+      <c r="H64">
+        <v>-0.03299403243753708</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01472431109997105</v>
+        <v>-0.02934195989688576</v>
       </c>
       <c r="C65">
-        <v>0.009658590433853342</v>
+        <v>-0.00435754507264552</v>
       </c>
       <c r="D65">
-        <v>0.008166136751317193</v>
+        <v>-0.06061557934437959</v>
       </c>
       <c r="E65">
-        <v>0.02144200621345572</v>
+        <v>-0.006873674948716095</v>
       </c>
       <c r="F65">
-        <v>-0.01109891534288625</v>
+        <v>0.03404441695155124</v>
       </c>
       <c r="G65">
-        <v>0.005618247517869525</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-4.910393478901253e-05</v>
+      </c>
+      <c r="H65">
+        <v>-0.06288035200453998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04570574124967025</v>
+        <v>-0.02607544560816524</v>
       </c>
       <c r="C66">
-        <v>0.03808887926173713</v>
+        <v>0.005606918113772129</v>
       </c>
       <c r="D66">
-        <v>-0.009165696574883343</v>
+        <v>-0.08759636212626666</v>
       </c>
       <c r="E66">
-        <v>0.04428921405935215</v>
+        <v>0.01042908396466198</v>
       </c>
       <c r="F66">
-        <v>-0.05712482312973223</v>
+        <v>0.03595647563165878</v>
       </c>
       <c r="G66">
-        <v>-0.01718277133662019</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.0340775926969774</v>
+      </c>
+      <c r="H66">
+        <v>-0.07339687262114272</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01792286128304836</v>
+        <v>-0.04348422364193301</v>
       </c>
       <c r="C67">
-        <v>-0.009768452333546148</v>
+        <v>0.0204468625831443</v>
       </c>
       <c r="D67">
-        <v>0.007527342143289354</v>
+        <v>0.002992319368028322</v>
       </c>
       <c r="E67">
-        <v>-0.02369684879304248</v>
+        <v>-0.001941592247128922</v>
       </c>
       <c r="F67">
-        <v>-0.03593549511054063</v>
+        <v>0.01170643256430151</v>
       </c>
       <c r="G67">
-        <v>0.01995279012408227</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.008804123849971424</v>
+      </c>
+      <c r="H67">
+        <v>-0.04016835420935245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05995209162721628</v>
+        <v>-0.1588951374390575</v>
       </c>
       <c r="C68">
-        <v>-0.04061840763968159</v>
+        <v>0.02193215964974856</v>
       </c>
       <c r="D68">
-        <v>-0.07023932446053069</v>
+        <v>0.2179827299555492</v>
       </c>
       <c r="E68">
-        <v>-0.1874784210495331</v>
+        <v>0.02180663883615674</v>
       </c>
       <c r="F68">
-        <v>-0.07330585199012654</v>
+        <v>-0.05604732313214832</v>
       </c>
       <c r="G68">
-        <v>0.03599467074379905</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01962008157024186</v>
+      </c>
+      <c r="H68">
+        <v>0.03719897381414315</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07393314770469676</v>
+        <v>-0.05811783268854077</v>
       </c>
       <c r="C69">
-        <v>0.02905666950065981</v>
+        <v>0.02905948117932501</v>
       </c>
       <c r="D69">
-        <v>-0.02253142223574055</v>
+        <v>-0.03816208306756438</v>
       </c>
       <c r="E69">
-        <v>0.01552281412545573</v>
+        <v>0.004488753433957323</v>
       </c>
       <c r="F69">
-        <v>0.001518804380134619</v>
+        <v>0.0299603004603018</v>
       </c>
       <c r="G69">
-        <v>-0.07599126506066678</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01115628980131358</v>
+      </c>
+      <c r="H69">
+        <v>0.00183948332713283</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07725946883558649</v>
+        <v>-0.1504858257503442</v>
       </c>
       <c r="C71">
-        <v>-0.02599970610813696</v>
+        <v>0.02920768921643152</v>
       </c>
       <c r="D71">
-        <v>-0.05912586428271491</v>
+        <v>0.2001300569417568</v>
       </c>
       <c r="E71">
-        <v>-0.2172122757969237</v>
+        <v>0.02347830327130651</v>
       </c>
       <c r="F71">
-        <v>-0.08196002564296159</v>
+        <v>-0.0669691768701703</v>
       </c>
       <c r="G71">
-        <v>-0.004704540774833202</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01648636416278429</v>
+      </c>
+      <c r="H71">
+        <v>0.02278273844072815</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1111457692651009</v>
+        <v>-0.08379628615194004</v>
       </c>
       <c r="C72">
-        <v>0.04702286306509759</v>
+        <v>0.04144274021622647</v>
       </c>
       <c r="D72">
-        <v>-0.07606911988694134</v>
+        <v>-0.08291863430496173</v>
       </c>
       <c r="E72">
-        <v>0.05274870481889991</v>
+        <v>0.007646366201200815</v>
       </c>
       <c r="F72">
-        <v>-0.1275407966116292</v>
+        <v>0.08204317401220224</v>
       </c>
       <c r="G72">
-        <v>0.09808447101879754</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.05512577104548334</v>
+      </c>
+      <c r="H72">
+        <v>-0.1851166403147102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2476079540537647</v>
+        <v>-0.2379955771008782</v>
       </c>
       <c r="C73">
-        <v>0.07648949279230394</v>
+        <v>0.05077301740484715</v>
       </c>
       <c r="D73">
-        <v>0.0005468259840940347</v>
+        <v>-0.06604367224967939</v>
       </c>
       <c r="E73">
-        <v>-0.0545642683727408</v>
+        <v>0.07818788828101068</v>
       </c>
       <c r="F73">
-        <v>-0.3430814285744436</v>
+        <v>0.0274593689618291</v>
       </c>
       <c r="G73">
-        <v>0.4570060022775035</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.0630521937480789</v>
+      </c>
+      <c r="H73">
+        <v>-0.5168738732351384</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1357678079810908</v>
+        <v>-0.1159487405999605</v>
       </c>
       <c r="C74">
-        <v>0.0239440433256945</v>
+        <v>0.05314853760006873</v>
       </c>
       <c r="D74">
-        <v>-0.03907333985652641</v>
+        <v>-0.09839248308426554</v>
       </c>
       <c r="E74">
-        <v>0.0213725919734839</v>
+        <v>0.004631018392334294</v>
       </c>
       <c r="F74">
-        <v>0.07915591325483949</v>
+        <v>0.06758572522684948</v>
       </c>
       <c r="G74">
-        <v>0.03735839528149162</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.05736190270537797</v>
+      </c>
+      <c r="H74">
+        <v>0.02822532194537723</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2276345231621136</v>
+        <v>-0.226015077542645</v>
       </c>
       <c r="C75">
-        <v>0.08611325897164532</v>
+        <v>0.1051499015748588</v>
       </c>
       <c r="D75">
-        <v>-0.1253999398422399</v>
+        <v>-0.1581210842408223</v>
       </c>
       <c r="E75">
-        <v>0.07019475878860335</v>
+        <v>0.0237284340856889</v>
       </c>
       <c r="F75">
-        <v>0.1538988351556775</v>
+        <v>0.1558244931800813</v>
       </c>
       <c r="G75">
-        <v>-0.008764285224890419</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1195267268977889</v>
+      </c>
+      <c r="H75">
+        <v>0.1145850514619879</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2754423296455965</v>
+        <v>-0.2001317344455837</v>
       </c>
       <c r="C76">
-        <v>0.03953934948337499</v>
+        <v>0.09815326885902055</v>
       </c>
       <c r="D76">
-        <v>-0.1605367274201399</v>
+        <v>-0.153535443640555</v>
       </c>
       <c r="E76">
-        <v>0.04609261152701718</v>
+        <v>-0.01952602208588182</v>
       </c>
       <c r="F76">
-        <v>0.1783865851178571</v>
+        <v>0.1563405089619988</v>
       </c>
       <c r="G76">
-        <v>-0.01434441267473908</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1198687255219833</v>
+      </c>
+      <c r="H76">
+        <v>0.1300382104452792</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1444675091884951</v>
+        <v>-0.0708160410604765</v>
       </c>
       <c r="C77">
-        <v>0.0304374481625995</v>
+        <v>0.0103769254284408</v>
       </c>
       <c r="D77">
-        <v>0.06236247090345837</v>
+        <v>-0.0742700148105208</v>
       </c>
       <c r="E77">
-        <v>0.09508289102116059</v>
+        <v>0.01558419789470097</v>
       </c>
       <c r="F77">
-        <v>-0.158918364659776</v>
+        <v>-0.03015926289531119</v>
       </c>
       <c r="G77">
-        <v>-0.2104219259763089</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.09665679573088845</v>
+      </c>
+      <c r="H77">
+        <v>0.01763479133577779</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06201956827774755</v>
+        <v>-0.0373293370443922</v>
       </c>
       <c r="C78">
-        <v>0.02885285399890342</v>
+        <v>0.01070571571773564</v>
       </c>
       <c r="D78">
-        <v>0.001210213340120199</v>
+        <v>-0.06397046582188717</v>
       </c>
       <c r="E78">
-        <v>0.09905400906623105</v>
+        <v>0.002679063995808572</v>
       </c>
       <c r="F78">
-        <v>-0.05092625529201915</v>
+        <v>0.02640626987388399</v>
       </c>
       <c r="G78">
-        <v>-0.06271710516884262</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.04723816962902901</v>
+      </c>
+      <c r="H78">
+        <v>-0.05827518871711146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1610088499527015</v>
+        <v>-0.1558732328935496</v>
       </c>
       <c r="C80">
-        <v>-0.9320803206800374</v>
+        <v>0.04880399719857565</v>
       </c>
       <c r="D80">
-        <v>-0.1481517431185313</v>
+        <v>-0.04504217583974964</v>
       </c>
       <c r="E80">
-        <v>0.2465645001053726</v>
+        <v>-0.9600696031994005</v>
       </c>
       <c r="F80">
-        <v>-0.0482546891850726</v>
+        <v>-0.1530972704398229</v>
       </c>
       <c r="G80">
-        <v>0.04354661334210116</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.09190439522015241</v>
+      </c>
+      <c r="H80">
+        <v>-0.01961249347444629</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.168468927932729</v>
+        <v>-0.1474106791366792</v>
       </c>
       <c r="C81">
-        <v>0.04353315139873577</v>
+        <v>0.06759444476517552</v>
       </c>
       <c r="D81">
-        <v>-0.1080834663622971</v>
+        <v>-0.09844819891049104</v>
       </c>
       <c r="E81">
-        <v>0.04584283649023506</v>
+        <v>-0.003519839071778603</v>
       </c>
       <c r="F81">
-        <v>0.1483750134620667</v>
+        <v>0.09720684911849037</v>
       </c>
       <c r="G81">
-        <v>0.02934774267347515</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.07740465079613697</v>
+      </c>
+      <c r="H81">
+        <v>0.08414460500198644</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.04979746216138773</v>
+        <v>-0.03312293667460318</v>
       </c>
       <c r="C83">
-        <v>0.03424469771524911</v>
+        <v>0.006057324755333136</v>
       </c>
       <c r="D83">
-        <v>0.02949559230992215</v>
+        <v>-0.02323483628535361</v>
       </c>
       <c r="E83">
-        <v>0.02441121697014824</v>
+        <v>0.01495381581804734</v>
       </c>
       <c r="F83">
-        <v>-0.04313513092630208</v>
+        <v>0.001986848548090583</v>
       </c>
       <c r="G83">
-        <v>-0.05397322304851743</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04315108072492152</v>
+      </c>
+      <c r="H83">
+        <v>-0.03788964405331716</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2493187731037962</v>
+        <v>-0.2126032514314301</v>
       </c>
       <c r="C85">
-        <v>0.05853105720440487</v>
+        <v>0.08739108653656068</v>
       </c>
       <c r="D85">
-        <v>-0.1289343245007934</v>
+        <v>-0.1590466578911517</v>
       </c>
       <c r="E85">
-        <v>0.05091476650860473</v>
+        <v>0.01364625374520738</v>
       </c>
       <c r="F85">
-        <v>0.1637278023210171</v>
+        <v>0.1388929946746391</v>
       </c>
       <c r="G85">
-        <v>-0.04298115127019093</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1329511372822868</v>
+      </c>
+      <c r="H85">
+        <v>0.09374931032071926</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.002938114896199856</v>
+        <v>-0.01915790082375553</v>
       </c>
       <c r="C86">
-        <v>-0.003493975663444258</v>
+        <v>-0.0001182619998676139</v>
       </c>
       <c r="D86">
-        <v>0.01738662648025734</v>
+        <v>-0.003884918326266413</v>
       </c>
       <c r="E86">
-        <v>0.04839673674755245</v>
+        <v>0.0111170062233502</v>
       </c>
       <c r="F86">
-        <v>-0.0622117379002189</v>
+        <v>-0.01321593456488736</v>
       </c>
       <c r="G86">
-        <v>-0.03725058755350145</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.06927304858867442</v>
+      </c>
+      <c r="H86">
+        <v>-0.06470572920923147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03777200940269859</v>
+        <v>-0.02944887538157619</v>
       </c>
       <c r="C87">
-        <v>0.01044930177735876</v>
+        <v>0.003578663710444603</v>
       </c>
       <c r="D87">
-        <v>0.003179652721090385</v>
+        <v>-0.03218203165865625</v>
       </c>
       <c r="E87">
-        <v>0.02514461467186345</v>
+        <v>0.004039635470572692</v>
       </c>
       <c r="F87">
-        <v>-0.1029270113816253</v>
+        <v>0.00792549030960309</v>
       </c>
       <c r="G87">
-        <v>-0.0392511475890041</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.07848113586313663</v>
+      </c>
+      <c r="H87">
+        <v>-0.06609803628484884</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01134999022707107</v>
+        <v>-0.03805356671811516</v>
       </c>
       <c r="C88">
-        <v>-0.01020525509504964</v>
+        <v>-0.01010229620867928</v>
       </c>
       <c r="D88">
-        <v>-0.01797664389937815</v>
+        <v>-0.001147375756342872</v>
       </c>
       <c r="E88">
-        <v>0.001877247745017295</v>
+        <v>-0.009549110531788379</v>
       </c>
       <c r="F88">
-        <v>-0.01935493118214206</v>
+        <v>0.0112659450518165</v>
       </c>
       <c r="G88">
-        <v>-0.06746625397967512</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.003982275523724805</v>
+      </c>
+      <c r="H88">
+        <v>-0.01038999722429765</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.0891409853699409</v>
+        <v>-0.2412912029556803</v>
       </c>
       <c r="C89">
-        <v>-0.02054519308562708</v>
+        <v>0.04249762763782956</v>
       </c>
       <c r="D89">
-        <v>-0.07208928158727143</v>
+        <v>0.3473305267303569</v>
       </c>
       <c r="E89">
-        <v>-0.2863610019098067</v>
+        <v>0.05083701932205653</v>
       </c>
       <c r="F89">
-        <v>-0.1335230080698269</v>
+        <v>-0.06764820442006059</v>
       </c>
       <c r="G89">
-        <v>-0.06286109247307256</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.02724232746290255</v>
+      </c>
+      <c r="H89">
+        <v>0.01220470084249303</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07969271260777445</v>
+        <v>-0.1984481061802985</v>
       </c>
       <c r="C90">
-        <v>-0.07478861286065899</v>
+        <v>0.03600424350155643</v>
       </c>
       <c r="D90">
-        <v>-0.08688025368079141</v>
+        <v>0.3033096879839624</v>
       </c>
       <c r="E90">
-        <v>-0.3097137796898434</v>
+        <v>0.03040744144704517</v>
       </c>
       <c r="F90">
-        <v>-0.1127801222965725</v>
+        <v>-0.08393865378089568</v>
       </c>
       <c r="G90">
-        <v>-0.04271691489988812</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02870031496803965</v>
+      </c>
+      <c r="H90">
+        <v>0.05935254918169269</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2992209425445984</v>
+        <v>-0.232944173068841</v>
       </c>
       <c r="C91">
-        <v>0.06852584595199789</v>
+        <v>0.1064392290497017</v>
       </c>
       <c r="D91">
-        <v>-0.1232078852967074</v>
+        <v>-0.151890565074508</v>
       </c>
       <c r="E91">
-        <v>0.01879736720571205</v>
+        <v>0.01525960874199607</v>
       </c>
       <c r="F91">
-        <v>0.2419169495755891</v>
+        <v>0.1462977238746666</v>
       </c>
       <c r="G91">
-        <v>0.02874396763828311</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1454164657344513</v>
+      </c>
+      <c r="H91">
+        <v>0.1689809328163169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1591120589281147</v>
+        <v>-0.2426852305804897</v>
       </c>
       <c r="C92">
-        <v>-0.07358188058644681</v>
+        <v>0.09821331298686527</v>
       </c>
       <c r="D92">
-        <v>-0.1564034541550289</v>
+        <v>0.2378367169282476</v>
       </c>
       <c r="E92">
-        <v>-0.4633184136867675</v>
+        <v>0.01577278954764839</v>
       </c>
       <c r="F92">
-        <v>0.05419112994146798</v>
+        <v>-0.04347734102495744</v>
       </c>
       <c r="G92">
-        <v>-0.4431571769289484</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.003997589876649036</v>
+      </c>
+      <c r="H92">
+        <v>0.1640857195599101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.08255092346808976</v>
+        <v>-0.2225258035440063</v>
       </c>
       <c r="C93">
-        <v>-0.0860889820979006</v>
+        <v>0.04818459629777182</v>
       </c>
       <c r="D93">
-        <v>-0.09300330122357153</v>
+        <v>0.3296573420817315</v>
       </c>
       <c r="E93">
-        <v>-0.4276318484950762</v>
+        <v>0.04448463556453292</v>
       </c>
       <c r="F93">
-        <v>-0.07886302452024371</v>
+        <v>-0.1033310394629205</v>
       </c>
       <c r="G93">
-        <v>0.03366354305436853</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.04199844512785049</v>
+      </c>
+      <c r="H93">
+        <v>0.01378920991184251</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2914476116344218</v>
+        <v>-0.2559199752341184</v>
       </c>
       <c r="C94">
-        <v>0.1079532993829984</v>
+        <v>0.0970247123861494</v>
       </c>
       <c r="D94">
-        <v>-0.2041838997603503</v>
+        <v>-0.138566906705654</v>
       </c>
       <c r="E94">
-        <v>0.04857334484701884</v>
+        <v>0.0320115506087281</v>
       </c>
       <c r="F94">
-        <v>0.2498023412091649</v>
+        <v>0.1915053512977962</v>
       </c>
       <c r="G94">
-        <v>0.09154176191666505</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1411356526749423</v>
+      </c>
+      <c r="H94">
+        <v>0.1780737779006326</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.077741193584396</v>
+        <v>-0.05338797566926518</v>
       </c>
       <c r="C95">
-        <v>0.06558480604629972</v>
+        <v>0.02944120071333702</v>
       </c>
       <c r="D95">
-        <v>0.03929598077579313</v>
+        <v>-0.09274452646180467</v>
       </c>
       <c r="E95">
-        <v>0.1011408074198944</v>
+        <v>0.07848517277107712</v>
       </c>
       <c r="F95">
-        <v>0.02678033189410791</v>
+        <v>0.00321258339590114</v>
       </c>
       <c r="G95">
-        <v>-0.1745688594346221</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.03329469537650261</v>
+      </c>
+      <c r="H95">
+        <v>-0.03493391880111771</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1839065782764314</v>
+        <v>-0.1817277629313108</v>
       </c>
       <c r="C98">
-        <v>0.03560214965753393</v>
+        <v>0.07152334580450159</v>
       </c>
       <c r="D98">
-        <v>0.008093360276575586</v>
+        <v>-0.03797903302205829</v>
       </c>
       <c r="E98">
-        <v>-0.06478739086699499</v>
+        <v>0.05268033274262902</v>
       </c>
       <c r="F98">
-        <v>-0.1754396241436249</v>
+        <v>-0.002173270335405652</v>
       </c>
       <c r="G98">
-        <v>0.3442923036210724</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.07691669779136795</v>
+      </c>
+      <c r="H98">
+        <v>-0.3812617343127064</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.005763025036538041</v>
+        <v>-0.01404665765126401</v>
       </c>
       <c r="C101">
-        <v>0.01154728928664659</v>
+        <v>-0.0007995985476933025</v>
       </c>
       <c r="D101">
-        <v>-0.004658448454169534</v>
+        <v>-0.01057711389936129</v>
       </c>
       <c r="E101">
-        <v>0.1086104013901151</v>
+        <v>-0.003431728997707591</v>
       </c>
       <c r="F101">
-        <v>-0.1395694863725186</v>
+        <v>0.01674502810654724</v>
       </c>
       <c r="G101">
-        <v>-0.1793932318034085</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1089345818970181</v>
+      </c>
+      <c r="H101">
+        <v>0.03256464413271806</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09897989937744811</v>
+        <v>-0.1023403248263554</v>
       </c>
       <c r="C102">
-        <v>0.0239456984125486</v>
+        <v>0.03463341709248785</v>
       </c>
       <c r="D102">
-        <v>-0.04123933860075533</v>
+        <v>-0.07839634256419634</v>
       </c>
       <c r="E102">
-        <v>0.05741787962138645</v>
+        <v>-0.0001426007258627787</v>
       </c>
       <c r="F102">
-        <v>0.1336353942010887</v>
+        <v>0.06927984604168515</v>
       </c>
       <c r="G102">
-        <v>-0.03495830215440882</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.07345495582064991</v>
+      </c>
+      <c r="H102">
+        <v>0.0746599020166599</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02692006466885041</v>
+        <v>-0.0198082027490378</v>
       </c>
       <c r="C103">
-        <v>0.01102816374027765</v>
+        <v>0.007830972273076112</v>
       </c>
       <c r="D103">
-        <v>-0.01317322913285125</v>
+        <v>-0.01752694930118489</v>
       </c>
       <c r="E103">
-        <v>0.01835607050554051</v>
+        <v>-0.007033830880540212</v>
       </c>
       <c r="F103">
-        <v>0.01279705786856969</v>
+        <v>0.01659482224999664</v>
       </c>
       <c r="G103">
-        <v>-0.03710113763350333</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.0001952898193658461</v>
+      </c>
+      <c r="H103">
+        <v>0.008160613854228685</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2820212368088115</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9426119838174729</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.006293587327145038</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02580401310533149</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1452663165174196</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.01001205084568153</v>
+      </c>
+      <c r="H104">
+        <v>0.03798906192529914</v>
       </c>
     </row>
   </sheetData>
